--- a/John_WorkLog_TYSS.xlsx
+++ b/John_WorkLog_TYSS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qspiders\TYSS\TYSS_Docs\VTigerAppDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VTIGER_CRM\VTigerAppDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A6E75-F286-4247-8960-E706FB3D8C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DailyReportingSheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -341,12 +340,15 @@
   </si>
   <si>
     <t>operations must do.and output sholuld be displayed</t>
+  </si>
+  <si>
+    <t>Leave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -511,12 +513,6 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -545,12 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -560,15 +550,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{5E48E3D3-9079-4F4B-A3B1-71E36468B50B}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -847,11 +849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,21 +894,42 @@
       <c r="A3" s="1">
         <v>44094</v>
       </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44095</v>
       </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44096</v>
       </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44097</v>
       </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -935,10 +958,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M21" xr:uid="{046C7CFF-2699-4EAB-933A-CF9D2C7C7A61}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M21">
       <formula1>$K$21:$K$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{A98E7F78-2DC3-4D53-B36B-AFD3B07C5E01}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>$K$21:$K$24</formula1>
     </dataValidation>
   </dataValidations>
@@ -947,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011E505C-C123-4ADF-A660-6E311806EEA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -963,120 +986,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1091,11 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA1457B-3FD6-4295-B7F2-2B205A9B2723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,1347 +1130,1326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>1</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>2</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>3</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="12">
         <v>4</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="12">
         <v>6</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="12">
         <v>1</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="12">
         <v>2</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>3</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="12">
         <v>4</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="12">
         <v>5</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="12">
         <v>6</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
+      <c r="A41" s="12">
         <v>1</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="12">
         <v>2</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
         <v>3</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="12">
         <v>4</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="12">
         <v>5</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
+      <c r="A52" s="12">
         <v>1</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="12">
         <v>2</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
         <v>3</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="12">
         <v>4</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="12">
         <v>5</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="14">
+      <c r="A64" s="12">
         <v>1</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="12">
         <v>2</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
         <v>3</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20" t="s">
+      <c r="C66" s="15"/>
+      <c r="D66" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="A67" s="12">
         <v>4</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="14"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="12">
         <v>5</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14" t="s">
+      <c r="C70" s="12"/>
+      <c r="D70" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="A71" s="12">
         <v>6</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14" t="s">
+      <c r="C71" s="12"/>
+      <c r="D71" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="14">
+      <c r="A77" s="12">
         <v>1</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+      <c r="A78" s="12">
         <v>2</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
         <v>3</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="A80" s="12">
         <v>4</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14" t="s">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="14"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14" t="s">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="14"/>
+      <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
+      <c r="A83" s="12">
         <v>5</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14" t="s">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
+      <c r="A84" s="12">
         <v>6</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14" t="s">
+      <c r="C84" s="12"/>
+      <c r="D84" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-    </row>
-    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="14">
+      <c r="A90" s="12">
         <v>1</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+      <c r="A91" s="12">
         <v>2</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
         <v>3</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="20" t="s">
+      <c r="C92" s="15"/>
+      <c r="D92" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+      <c r="A93" s="12">
         <v>4</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14" t="s">
+      <c r="C93" s="12"/>
+      <c r="D93" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
+      <c r="A94" s="12">
         <v>5</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14" t="s">
+      <c r="C94" s="12"/>
+      <c r="D94" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-    </row>
-    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="14">
+      <c r="A100" s="12">
         <v>1</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
+      <c r="A101" s="12">
         <v>2</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
+    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
         <v>3</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="14">
+      <c r="A103" s="12">
         <v>4</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14" t="s">
+      <c r="C103" s="12"/>
+      <c r="D103" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-    </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="14">
+      <c r="A109" s="12">
         <v>1</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="14">
+      <c r="A110" s="12">
         <v>2</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
         <v>3</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20" t="s">
+      <c r="C111" s="15"/>
+      <c r="D111" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="14">
+      <c r="A112" s="12">
         <v>4</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
+      <c r="A113" s="12">
         <v>5</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14" t="s">
+      <c r="C113" s="12"/>
+      <c r="D113" s="12" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B105:D105"/>
@@ -2458,18 +2460,39 @@
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C52" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C64" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C77" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C90" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C100" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C109" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C17" r:id="rId2"/>
+    <hyperlink ref="C29" r:id="rId3"/>
+    <hyperlink ref="C41" r:id="rId4"/>
+    <hyperlink ref="C52" r:id="rId5"/>
+    <hyperlink ref="C64" r:id="rId6"/>
+    <hyperlink ref="C77" r:id="rId7"/>
+    <hyperlink ref="C90" r:id="rId8"/>
+    <hyperlink ref="C100" r:id="rId9"/>
+    <hyperlink ref="C109" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
